--- a/data-entry-app/src/model-docs/Fund Request - 6 Aid.xlsx
+++ b/data-entry-app/src/model-docs/Fund Request - 6 Aid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babug\OneDrive\Desktop\mnp_ash\Project-MNP\data-entry-app\src\model-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47454DD3-007A-47EA-ABF5-403B1F614DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CE67BC-FB15-40C8-908F-E1E948EADD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>CHEQUE SL.NO.</t>
   </si>
@@ -163,12 +163,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>His Holiness AMMA at Melmaruvathur on 03.03.2025</t>
-  </si>
-  <si>
-    <t>FUND Request No: 6 Dated  20.02.2025 - AID</t>
-  </si>
-  <si>
     <t>NAME OF BENEFICIARY</t>
   </si>
   <si>
@@ -191,6 +185,106 @@
   </si>
   <si>
     <t>SL No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Pratheev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindustan College of Arts&amp;Science(Autonomous) </t>
+  </si>
+  <si>
+    <t>M.Sc</t>
+  </si>
+  <si>
+    <t>Hindustan College of Arts&amp;Science</t>
+  </si>
+  <si>
+    <t>A.Mithuna</t>
+  </si>
+  <si>
+    <t>St.Joseph's college of Arts &amp; Science</t>
+  </si>
+  <si>
+    <t>B.Sc</t>
+  </si>
+  <si>
+    <t>532719766947</t>
+  </si>
+  <si>
+    <t>T.Gouthaman</t>
+  </si>
+  <si>
+    <t>University College of Engg, Panruti</t>
+  </si>
+  <si>
+    <t>B.E</t>
+  </si>
+  <si>
+    <t>353743383565</t>
+  </si>
+  <si>
+    <t>S.Arjun</t>
+  </si>
+  <si>
+    <t>Thanthai Hans Roever College</t>
+  </si>
+  <si>
+    <t>B.Com</t>
+  </si>
+  <si>
+    <t>K.NITHISH KUMAR</t>
+  </si>
+  <si>
+    <t>SATHYA COLLEGE OF ARTS AND SCIENCE</t>
+  </si>
+  <si>
+    <t>M.Com</t>
+  </si>
+  <si>
+    <t>931977437443</t>
+  </si>
+  <si>
+    <t>S.Aathithyan</t>
+  </si>
+  <si>
+    <t>Adhiparasakthi College of Nursing</t>
+  </si>
+  <si>
+    <t>B.Sc.Nursing</t>
+  </si>
+  <si>
+    <t>495531057445</t>
+  </si>
+  <si>
+    <t>M.Arunachalam</t>
+  </si>
+  <si>
+    <t>Anjali Ammal - Mahalingam Engineering College</t>
+  </si>
+  <si>
+    <t>660842719008</t>
+  </si>
+  <si>
+    <t>G.Sathya</t>
+  </si>
+  <si>
+    <t>B.Sc Nursing</t>
+  </si>
+  <si>
+    <t>779319013868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P 308 
+</t>
+  </si>
+  <si>
+    <t>His Holiness AMMA at Melmaruvathur on 03.03.2026</t>
+  </si>
+  <si>
+    <t>${district_name}</t>
+  </si>
+  <si>
+    <t>FUND Request No: ${fund_request_number} Dated  ${fund_request_created_date} - ${aid_type} AID</t>
   </si>
 </sst>
 </file>
@@ -270,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -306,11 +400,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,9 +478,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -374,9 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,15 +526,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,8 +539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,20 +564,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,666 +868,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.08984375" style="7"/>
-    <col min="2" max="2" width="17.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.36328125" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="22.90625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="33.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.36328125" customWidth="1"/>
     <col min="10" max="10" width="19.54296875" customWidth="1"/>
     <col min="11" max="11" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="I5" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="3"/>
+      <c r="E6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="17">
+        <v>25000</v>
+      </c>
+      <c r="G6" s="27">
+        <v>515486337431</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="3"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="44">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="3"/>
+    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="44">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="44">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="44">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="44">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="28">
+        <v>954473666664</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="3"/>
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="44">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="44">
+        <v>32365</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="3"/>
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="44">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="44">
+        <v>174900</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="3"/>
+    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="44">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="44">
+        <v>81850</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="19"/>
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="44">
+        <v>8</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="44">
+        <v>134100</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F6:F13)</f>
+        <v>508215</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="1"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="A19" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="A20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="35">
+        <v>250000</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="35">
+        <v>508215</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="35">
+        <f>SUM(C21:C22)</f>
+        <v>758215</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="1"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="9">
-        <f>SUM(F6:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="43"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="43"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="43"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="43"/>
-    </row>
-    <row r="48" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A48" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="42">
-        <v>250000</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="42">
-        <v>250000</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="42">
-        <f>SUM(C50:C51)</f>
-        <v>500000</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C59" s="26"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E60" s="6"/>
+      <c r="E31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.88" bottom="0.95" header="0.63" footer="0.39"/>
@@ -1426,10 +1339,10 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1437,10 +1350,10 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1448,10 +1361,10 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1459,10 +1372,10 @@
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1470,10 +1383,10 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="K5">
@@ -1484,10 +1397,10 @@
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K6">
@@ -1498,10 +1411,10 @@
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="K7">
@@ -1509,13 +1422,13 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="K8">
@@ -1523,194 +1436,194 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>16</v>
       </c>
     </row>
